--- a/back/public/dealer/files/salesorder/excel/salesorder_36.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_36.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t xml:space="preserve">PT. SUNWAY TREK MASINDO
 (A MEMBER OF THE SUNWAY GROUP)
@@ -26,22 +26,25 @@
     <t>SOLD TO:</t>
   </si>
   <si>
-    <t>CV Maju Abadi - jakartaa</t>
+    <t>Gala Jaya - Pontianak - Sulawesi</t>
   </si>
   <si>
     <t>SO NO</t>
   </si>
   <si>
+    <t>SS-13/#8003/21/JUL/2025</t>
+  </si>
+  <si>
+    <t>DELIVERED TO:</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>DELIVERED TO:</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>7/15/2025</t>
+    <t>7/21/2025</t>
   </si>
   <si>
     <t>PHONE:</t>
@@ -80,7 +83,7 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>PPN - 11%</t>
+    <t>PPN%</t>
   </si>
   <si>
     <t>UNIT SELL PRICE IDR</t>
@@ -740,11 +743,11 @@
   <sheetPr>
     <tabColor rgb="FFB8CCE4"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
@@ -808,84 +811,84 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,227 +907,82 @@
         <v>1</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10">
-        <v>2900</v>
+        <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="10">
         <v>30000</v>
       </c>
       <c r="G16" s="10">
-        <v>3300</v>
+        <v>11</v>
       </c>
       <c r="H16" s="10">
         <v>33300</v>
       </c>
       <c r="I16" s="10">
-        <v>96570000</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2130</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3300</v>
-      </c>
-      <c r="H17" s="10">
-        <v>33300</v>
-      </c>
-      <c r="I17" s="10">
-        <v>70929000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>3</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="10">
-        <v>11500</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3300</v>
-      </c>
-      <c r="H18" s="10">
-        <v>33300</v>
-      </c>
-      <c r="I18" s="10">
-        <v>382950000</v>
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
+        <v>66600</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>4</v>
+      <c r="A19" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="10">
-        <v>160</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G19" s="10">
-        <v>3300</v>
-      </c>
-      <c r="H19" s="10">
-        <v>33300</v>
-      </c>
-      <c r="I19" s="10">
-        <v>5328000</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>5</v>
+      <c r="A20" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="10">
-        <v>19500</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G20" s="10">
-        <v>3300</v>
-      </c>
-      <c r="H20" s="10">
-        <v>33300</v>
-      </c>
-      <c r="I20" s="10">
-        <v>649350000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="10">
-        <v>8604</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G21" s="10">
-        <v>3300</v>
-      </c>
-      <c r="H21" s="10">
-        <v>33300</v>
-      </c>
-      <c r="I21" s="10">
-        <v>286513200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12">
-        <v>1491640200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1139,7 +997,7 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
